--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.011020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Spring.011020.xlsx_with_dialog_acts.xlsx
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1535,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2603,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4317,12 +4317,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4393,12 +4393,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4849,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5343,12 +5343,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5457,12 +5457,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5647,12 +5647,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5723,12 +5723,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5799,12 +5799,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6103,12 +6103,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6179,12 +6179,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6829,12 +6829,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7251,12 +7251,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7327,12 +7327,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7479,12 +7479,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7783,12 +7783,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7859,12 +7859,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8277,12 +8277,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8429,12 +8429,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8467,12 +8467,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8581,12 +8581,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8619,12 +8619,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8771,12 +8771,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9075,12 +9075,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9227,12 +9227,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9303,12 +9303,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9569,12 +9569,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9721,12 +9721,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9835,12 +9835,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10329,12 +10329,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10557,12 +10557,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10709,12 +10709,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11549,12 +11549,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11777,12 +11777,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11815,12 +11815,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11853,12 +11853,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11929,12 +11929,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11967,12 +11967,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12195,12 +12195,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12385,12 +12385,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12537,12 +12537,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12613,12 +12613,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12689,12 +12689,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12765,12 +12765,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12803,12 +12803,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12993,12 +12993,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13183,12 +13183,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13525,12 +13525,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13563,12 +13563,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13753,12 +13753,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13791,12 +13791,12 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13981,12 +13981,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14133,12 +14133,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14361,12 +14361,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15125,12 +15125,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15505,12 +15505,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15961,12 +15961,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16113,12 +16113,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17485,12 +17485,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17675,12 +17675,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17827,12 +17827,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17903,12 +17903,12 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18587,12 +18587,12 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19081,12 +19081,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19119,12 +19119,12 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19195,12 +19195,12 @@
       <c r="H493" t="inlineStr"/>
       <c r="I493" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19385,12 +19385,12 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19541,12 +19541,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19655,12 +19655,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19693,12 +19693,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20111,12 +20111,12 @@
       <c r="H517" t="inlineStr"/>
       <c r="I517" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
